--- a/sorted_aging_report.xlsx
+++ b/sorted_aging_report.xlsx
@@ -1437,7 +1437,7 @@
         <v>2938</v>
       </c>
       <c r="N18" t="n">
-        <v>4545.37</v>
+        <v>2938</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>7935.37</v>
+        <v>3390</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1717.5</v>
+        <v>1695</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2712</v>
+        <v>1356</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>5198</v>
+        <v>2486</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>6554</v>
+        <v>1356</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>9944</v>
+        <v>3390</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>18871</v>
+        <v>9040</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>28680.9</v>
+        <v>24408</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>22374</v>
+        <v>10848</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>51980</v>
+        <v>25990</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>38984.27</v>
+        <v>20340</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>58985.38</v>
+        <v>20001.11</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>734.5</v>
       </c>
       <c r="N57" t="n">
-        <v>734.51</v>
+        <v>734.5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>3298.5</v>
+        <v>3277</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>7276.58</v>
+        <v>3277</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>7502.74</v>
+        <v>7500.88</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>5463.55</v>
+        <v>2073.55</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>25803.55</v>
+        <v>20340</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>26103</v>
+        <v>12430</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>32318</v>
+        <v>6215</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>33561</v>
+        <v>1243</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>34804</v>
+        <v>1243</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>37290</v>
+        <v>2486</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>39776</v>
+        <v>2486</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>43505</v>
+        <v>3729</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>50963</v>
+        <v>7458</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>60907</v>
+        <v>9944</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>69608</v>
+        <v>8701</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>3320</v>
+        <v>3277</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>19041.01</v>
+        <v>9040</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>1637.75</v>
+        <v>819.25</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>3276.25</v>
+        <v>1638.5</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>4039</v>
+        <v>762.75</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>4801.75</v>
+        <v>762.75</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>2711.78</v>
+        <v>1695</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>23051.78</v>
+        <v>20340</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>7346.05</v>
+        <v>7345</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>48872</v>
+        <v>40680</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>89552</v>
+        <v>40680</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>11911.72</v>
+        <v>1909.7</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="n">
-        <v>10030</v>
+        <v>9040</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>19070</v>
+        <v>9040</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>272825</v>
+        <v>203400</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>476225</v>
+        <v>203400</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="n">
-        <v>679625</v>
+        <v>203400</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>14983</v>
+        <v>14690</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="n">
-        <v>29673</v>
+        <v>14690</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="N158" t="n">
-        <v>44363</v>
+        <v>14690</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>48025</v>
       </c>
       <c r="N165" t="n">
-        <v>252242</v>
+        <v>48025</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="n">
-        <v>300267</v>
+        <v>48025</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>348292</v>
+        <v>48025</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>396317</v>
+        <v>48025</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="N169" t="n">
-        <v>444342</v>
+        <v>48025</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>492367</v>
+        <v>48025</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>540392</v>
+        <v>48025</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>588417</v>
+        <v>48025</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="n">
-        <v>162661.19</v>
+        <v>135600</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>201081.19</v>
+        <v>38420</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>239501.19</v>
+        <v>38420</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>324251.19</v>
+        <v>84750</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>362671.19</v>
+        <v>38420</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>1474.66</v>
+        <v>1474.65</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>5650.5</v>
+        <v>5650</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>1024.23</v>
+        <v>524.3200000000001</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>1589.23</v>
+        <v>565</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>2140.67</v>
+        <v>551.4400000000001</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="N202" t="n">
-        <v>13219.02</v>
+        <v>5876</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="N203" t="n">
-        <v>22813.85</v>
+        <v>9594.83</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>1712</v>
+        <v>1695</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="N208" t="n">
-        <v>9999.66</v>
+        <v>5000.48</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>19999.53</v>
       </c>
       <c r="N210" t="n">
-        <v>30001.87</v>
+        <v>19999.53</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>9999.77</v>
       </c>
       <c r="N211" t="n">
-        <v>40001.64</v>
+        <v>9999.77</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="N212" t="n">
-        <v>45002.34</v>
+        <v>5000.7</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>50002.59</v>
+        <v>5000.25</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="N214" t="n">
-        <v>55002.84</v>
+        <v>5000.25</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="N215" t="n">
-        <v>60003.09</v>
+        <v>5000.25</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>65003.34</v>
+        <v>5000.25</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>45825</v>
+        <v>44070</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>89895</v>
+        <v>44070</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>5390.24</v>
+        <v>2000.78</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>7373.39</v>
+        <v>1983.15</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>13029.04</v>
+        <v>5655.65</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>16628.09</v>
+        <v>3599.05</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>7996.53</v>
+        <v>2999.7</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>9126.530000000001</v>
+        <v>1130</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>5651.2</v>
+        <v>5650</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>2159.43</v>
+        <v>690.4299999999999</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>5831.93</v>
+        <v>3672.5</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>6860.23</v>
+        <v>1028.3</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="N238" t="n">
-        <v>8329.23</v>
+        <v>1469</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="N239" t="n">
-        <v>11312.43</v>
+        <v>2983.2</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="N241" t="n">
-        <v>17209.94</v>
+        <v>16951.19</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>0</v>
       </c>
       <c r="N246" t="n">
-        <v>2825.7</v>
+        <v>2825</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="N259" t="n">
-        <v>3499.13</v>
+        <v>109.61</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="N262" t="n">
-        <v>4859</v>
+        <v>3390</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="N269" t="n">
-        <v>1563.92</v>
+        <v>781.96</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>514.15</v>
       </c>
       <c r="N274" t="n">
-        <v>587.6</v>
+        <v>514.15</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="N275" t="n">
-        <v>1087.06</v>
+        <v>499.46</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="N276" t="n">
-        <v>2085.98</v>
+        <v>998.92</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>0</v>
       </c>
       <c r="N277" t="n">
-        <v>4910.98</v>
+        <v>2825</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="N278" t="n">
-        <v>5498.58</v>
+        <v>587.6</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>0</v>
       </c>
       <c r="N279" t="n">
-        <v>5939.28</v>
+        <v>440.7</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="N280" t="n">
-        <v>10938.29</v>
+        <v>4999.01</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="N285" t="n">
-        <v>4238</v>
+        <v>4237.5</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="N286" t="n">
-        <v>5509.25</v>
+        <v>1271.25</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>15000.47</v>
       </c>
       <c r="N291" t="n">
-        <v>15001.41</v>
+        <v>15000.47</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="N292" t="n">
-        <v>17002.02</v>
+        <v>2000.61</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="N295" t="n">
-        <v>247749.78</v>
+        <v>112999.89</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="N296" t="n">
-        <v>360749.67</v>
+        <v>112999.89</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="N297" t="n">
-        <v>459511.56</v>
+        <v>98761.89</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="N301" t="n">
-        <v>12497.99</v>
+        <v>9989.200000000001</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="N302" t="n">
-        <v>21311.99</v>
+        <v>8814</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>0</v>
       </c>
       <c r="N303" t="n">
-        <v>24136.99</v>
+        <v>2825</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="N304" t="n">
-        <v>31481.99</v>
+        <v>7345</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>91.53</v>
       </c>
       <c r="N316" t="n">
-        <v>91.54000000000001</v>
+        <v>91.53</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>0</v>
       </c>
       <c r="N320" t="n">
-        <v>3999.67</v>
+        <v>2000.1</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="N321" t="n">
-        <v>5999.77</v>
+        <v>2000.1</v>
       </c>
       <c r="O321" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="N322" t="n">
-        <v>7999.87</v>
+        <v>2000.1</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="N324" t="n">
-        <v>36160</v>
+        <v>33900</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>0</v>
       </c>
       <c r="N328" t="n">
-        <v>3999.58</v>
+        <v>2000.61</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="N329" t="n">
-        <v>6999.67</v>
+        <v>3000.09</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>0</v>
       </c>
       <c r="N330" t="n">
-        <v>9824.67</v>
+        <v>2825</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>3277</v>
       </c>
       <c r="N332" t="n">
-        <v>3489</v>
+        <v>3277</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="N333" t="n">
-        <v>36259</v>
+        <v>32770</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="N335" t="n">
-        <v>20879.62</v>
+        <v>874.62</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>1000.05</v>
       </c>
       <c r="N342" t="n">
-        <v>1015.05</v>
+        <v>1000.05</v>
       </c>
       <c r="O342" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="N343" t="n">
-        <v>3840.05</v>
+        <v>2825</v>
       </c>
       <c r="O343" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>0</v>
       </c>
       <c r="N347" t="n">
-        <v>3275.64</v>
+        <v>1638.5</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="N353" t="n">
-        <v>20649.96</v>
+        <v>5650</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>100000.48</v>
       </c>
       <c r="N372" t="n">
-        <v>227949.75</v>
+        <v>100000.48</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="N373" t="n">
-        <v>277949.99</v>
+        <v>50000.24</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>0</v>
       </c>
       <c r="N374" t="n">
-        <v>327950.23</v>
+        <v>50000.24</v>
       </c>
       <c r="O374" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="N375" t="n">
-        <v>377950.47</v>
+        <v>50000.24</v>
       </c>
       <c r="O375" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>0</v>
       </c>
       <c r="N376" t="n">
-        <v>427950.71</v>
+        <v>50000.24</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>10312.38</v>
       </c>
       <c r="N378" t="n">
-        <v>11880.2</v>
+        <v>10312.38</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>0</v>
       </c>
       <c r="N379" t="n">
-        <v>15993.4</v>
+        <v>4113.2</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>0</v>
       </c>
       <c r="N380" t="n">
-        <v>24219.8</v>
+        <v>8226.4</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>0</v>
       </c>
       <c r="N381" t="n">
-        <v>30389.6</v>
+        <v>6169.8</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>0</v>
       </c>
       <c r="N384" t="n">
-        <v>6554</v>
+        <v>3277</v>
       </c>
       <c r="O384" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="N385" t="n">
-        <v>9379</v>
+        <v>2825</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>0</v>
       </c>
       <c r="N388" t="n">
-        <v>162870</v>
+        <v>16950</v>
       </c>
       <c r="O388" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>0</v>
       </c>
       <c r="N389" t="n">
-        <v>897370</v>
+        <v>734500</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="N392" t="n">
-        <v>4375.13</v>
+        <v>2430.63</v>
       </c>
       <c r="O392" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>0</v>
       </c>
       <c r="N395" t="n">
-        <v>20000.58</v>
+        <v>7336.19</v>
       </c>
       <c r="O395" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>0</v>
       </c>
       <c r="N396" t="n">
-        <v>34690.58</v>
+        <v>14690</v>
       </c>
       <c r="O396" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="N397" t="n">
-        <v>39999.55</v>
+        <v>5308.97</v>
       </c>
       <c r="O397" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="N398" t="n">
-        <v>60339.55</v>
+        <v>20340</v>
       </c>
       <c r="O398" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>23730</v>
       </c>
       <c r="N401" t="n">
-        <v>35594.43</v>
+        <v>23730</v>
       </c>
       <c r="O401" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>0</v>
       </c>
       <c r="N402" t="n">
-        <v>51414.43</v>
+        <v>15820</v>
       </c>
       <c r="O402" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="N403" t="n">
-        <v>63279.43</v>
+        <v>11865</v>
       </c>
       <c r="O403" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>0</v>
       </c>
       <c r="N404" t="n">
-        <v>71189.42999999999</v>
+        <v>7910</v>
       </c>
       <c r="O404" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="N405" t="n">
-        <v>87009.42999999999</v>
+        <v>15820</v>
       </c>
       <c r="O405" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="N406" t="n">
-        <v>102829.43</v>
+        <v>15820</v>
       </c>
       <c r="O406" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="N409" t="n">
-        <v>27286.84</v>
+        <v>5650</v>
       </c>
       <c r="O409" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>10000.5</v>
       </c>
       <c r="N418" t="n">
-        <v>20268.83</v>
+        <v>10000.5</v>
       </c>
       <c r="O418" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>10000.5</v>
       </c>
       <c r="N419" t="n">
-        <v>30269.33</v>
+        <v>10000.5</v>
       </c>
       <c r="O419" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>0</v>
       </c>
       <c r="N420" t="n">
-        <v>37953.33</v>
+        <v>7684</v>
       </c>
       <c r="O420" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>0</v>
       </c>
       <c r="N421" t="n">
-        <v>45637.33</v>
+        <v>7684</v>
       </c>
       <c r="O421" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>0</v>
       </c>
       <c r="N424" t="n">
-        <v>7975.1</v>
+        <v>2000.1</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="N426" t="n">
-        <v>26011.17</v>
+        <v>24860</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>4998.84</v>
       </c>
       <c r="N432" t="n">
-        <v>8925.610000000001</v>
+        <v>4998.84</v>
       </c>
       <c r="O432" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="N433" t="n">
-        <v>10925.71</v>
+        <v>2000.1</v>
       </c>
       <c r="O433" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="N434" t="n">
-        <v>11925.76</v>
+        <v>1000.05</v>
       </c>
       <c r="O434" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="N435" t="n">
-        <v>16926.01</v>
+        <v>5000.25</v>
       </c>
       <c r="O435" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="N436" t="n">
-        <v>28226.01</v>
+        <v>11300</v>
       </c>
       <c r="O436" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>0</v>
       </c>
       <c r="N437" t="n">
-        <v>33226.26</v>
+        <v>5000.25</v>
       </c>
       <c r="O437" t="inlineStr">
         <is>
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="N438" t="n">
-        <v>35226.36</v>
+        <v>2000.1</v>
       </c>
       <c r="O438" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>0</v>
       </c>
       <c r="N439" t="n">
-        <v>40226.61</v>
+        <v>5000.25</v>
       </c>
       <c r="O439" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="N440" t="n">
-        <v>43226.76</v>
+        <v>3000.15</v>
       </c>
       <c r="O440" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>0</v>
       </c>
       <c r="N441" t="n">
-        <v>48227.01</v>
+        <v>5000.25</v>
       </c>
       <c r="O441" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="N443" t="n">
-        <v>5650.9</v>
+        <v>5650</v>
       </c>
       <c r="O443" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="N445" t="n">
-        <v>11698.87</v>
+        <v>10000.5</v>
       </c>
       <c r="O445" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>0</v>
       </c>
       <c r="N450" t="n">
-        <v>23730</v>
+        <v>9040</v>
       </c>
       <c r="O450" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>7910</v>
       </c>
       <c r="N455" t="n">
-        <v>11865</v>
+        <v>7910</v>
       </c>
       <c r="O455" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>0</v>
       </c>
       <c r="N456" t="n">
-        <v>61698</v>
+        <v>49833</v>
       </c>
       <c r="O456" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>0</v>
       </c>
       <c r="N457" t="n">
-        <v>101248</v>
+        <v>39550</v>
       </c>
       <c r="O457" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="N458" t="n">
-        <v>124978</v>
+        <v>23730</v>
       </c>
       <c r="O458" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>3390</v>
       </c>
       <c r="N463" t="n">
-        <v>5389.94</v>
+        <v>3390</v>
       </c>
       <c r="O463" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>3277</v>
       </c>
       <c r="N464" t="n">
-        <v>8666.940000000001</v>
+        <v>3277</v>
       </c>
       <c r="O464" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="N465" t="n">
-        <v>10305.44</v>
+        <v>1638.5</v>
       </c>
       <c r="O465" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="N466" t="n">
-        <v>11943.94</v>
+        <v>1638.5</v>
       </c>
       <c r="O466" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>0</v>
       </c>
       <c r="N469" t="n">
-        <v>21437.2</v>
+        <v>1695</v>
       </c>
       <c r="O469" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="N472" t="n">
-        <v>548434.88</v>
+        <v>216336.92</v>
       </c>
       <c r="O472" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>0</v>
       </c>
       <c r="N473" t="n">
-        <v>845895.85</v>
+        <v>297460.97</v>
       </c>
       <c r="O473" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="N474" t="n">
-        <v>1073067.21</v>
+        <v>227171.36</v>
       </c>
       <c r="O474" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="N481" t="n">
-        <v>11300</v>
+        <v>5650</v>
       </c>
       <c r="O481" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>0</v>
       </c>
       <c r="N482" t="n">
-        <v>14300.15</v>
+        <v>3000.15</v>
       </c>
       <c r="O482" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>0</v>
       </c>
       <c r="N485" t="n">
-        <v>6891.5</v>
+        <v>6780</v>
       </c>
       <c r="O485" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>0</v>
       </c>
       <c r="N489" t="n">
-        <v>4496.61</v>
+        <v>1999.31</v>
       </c>
       <c r="O489" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>0</v>
       </c>
       <c r="N494" t="n">
-        <v>21469.11</v>
+        <v>15820</v>
       </c>
       <c r="O494" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="N495" t="n">
-        <v>41809.11</v>
+        <v>20340</v>
       </c>
       <c r="O495" t="inlineStr">
         <is>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="N500" t="n">
-        <v>43923.99</v>
+        <v>18080.45</v>
       </c>
       <c r="O500" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>0</v>
       </c>
       <c r="N501" t="n">
-        <v>49574.5</v>
+        <v>5650.51</v>
       </c>
       <c r="O501" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>0</v>
       </c>
       <c r="N502" t="n">
-        <v>52964.95</v>
+        <v>3390.45</v>
       </c>
       <c r="O502" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>0</v>
       </c>
       <c r="N503" t="n">
-        <v>56355.4</v>
+        <v>3390.45</v>
       </c>
       <c r="O503" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>0</v>
       </c>
       <c r="N504" t="n">
-        <v>93080.39999999999</v>
+        <v>36725</v>
       </c>
       <c r="O504" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>0</v>
       </c>
       <c r="N505" t="n">
-        <v>106640.74</v>
+        <v>13560.34</v>
       </c>
       <c r="O505" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="N506" t="n">
-        <v>131501.36</v>
+        <v>24860.62</v>
       </c>
       <c r="O506" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="N507" t="n">
-        <v>188002.04</v>
+        <v>56500.68</v>
       </c>
       <c r="O507" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="N508" t="n">
-        <v>202692.04</v>
+        <v>14690</v>
       </c>
       <c r="O508" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>0</v>
       </c>
       <c r="N509" t="n">
-        <v>206364.54</v>
+        <v>3672.5</v>
       </c>
       <c r="O509" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="N510" t="n">
-        <v>210037.04</v>
+        <v>3672.5</v>
       </c>
       <c r="O510" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>0</v>
       </c>
       <c r="N511" t="n">
-        <v>285747.1</v>
+        <v>75710.06</v>
       </c>
       <c r="O511" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>0</v>
       </c>
       <c r="N512" t="n">
-        <v>289419.6</v>
+        <v>3672.5</v>
       </c>
       <c r="O512" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>0</v>
       </c>
       <c r="N513" t="n">
-        <v>302979.94</v>
+        <v>13560.34</v>
       </c>
       <c r="O513" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>0</v>
       </c>
       <c r="N514" t="n">
-        <v>336880.79</v>
+        <v>33900.85</v>
       </c>
       <c r="O514" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="N515" t="n">
-        <v>351570.79</v>
+        <v>14690</v>
       </c>
       <c r="O515" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>3001.05</v>
       </c>
       <c r="N518" t="n">
-        <v>3002.32</v>
+        <v>3001.05</v>
       </c>
       <c r="O518" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N519" t="n">
-        <v>8002.91</v>
+        <v>5000.59</v>
       </c>
       <c r="O519" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="N520" t="n">
-        <v>13652.91</v>
+        <v>5650</v>
       </c>
       <c r="O520" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>0</v>
       </c>
       <c r="N521" t="n">
-        <v>19302.91</v>
+        <v>5650</v>
       </c>
       <c r="O521" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>0</v>
       </c>
       <c r="N523" t="n">
-        <v>4188.91</v>
+        <v>798.91</v>
       </c>
       <c r="O523" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>1342.44</v>
       </c>
       <c r="N525" t="n">
-        <v>4027.32</v>
+        <v>1342.44</v>
       </c>
       <c r="O525" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="N534" t="n">
-        <v>5572.87</v>
+        <v>4576.5</v>
       </c>
       <c r="O534" t="inlineStr">
         <is>
@@ -29872,7 +29872,7 @@
         <v>0</v>
       </c>
       <c r="N535" t="n">
-        <v>14612.87</v>
+        <v>9040</v>
       </c>
       <c r="O535" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="N538" t="n">
-        <v>13108</v>
+        <v>9831</v>
       </c>
       <c r="O538" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>0</v>
       </c>
       <c r="N539" t="n">
-        <v>32770</v>
+        <v>19662</v>
       </c>
       <c r="O539" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="N540" t="n">
-        <v>34408.5</v>
+        <v>1638.5</v>
       </c>
       <c r="O540" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="N549" t="n">
-        <v>499.48</v>
+        <v>499.46</v>
       </c>
       <c r="O549" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="N550" t="n">
-        <v>793.28</v>
+        <v>293.8</v>
       </c>
       <c r="O550" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>6609.6</v>
       </c>
       <c r="N556" t="n">
-        <v>133573.76</v>
+        <v>6609.6</v>
       </c>
       <c r="O556" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>0</v>
       </c>
       <c r="N557" t="n">
-        <v>140177.6</v>
+        <v>6603.84</v>
       </c>
       <c r="O557" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>0</v>
       </c>
       <c r="N558" t="n">
-        <v>147377.6</v>
+        <v>7200</v>
       </c>
       <c r="O558" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>0</v>
       </c>
       <c r="N559" t="n">
-        <v>154577.6</v>
+        <v>7200</v>
       </c>
       <c r="O559" t="inlineStr">
         <is>
@@ -31357,7 +31357,7 @@
         <v>20566</v>
       </c>
       <c r="N562" t="n">
-        <v>24815.39</v>
+        <v>20566</v>
       </c>
       <c r="O562" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         <v>0</v>
       </c>
       <c r="N563" t="n">
-        <v>45381.39</v>
+        <v>20566</v>
       </c>
       <c r="O563" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>0</v>
       </c>
       <c r="N564" t="n">
-        <v>65947.39</v>
+        <v>20566</v>
       </c>
       <c r="O564" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>0</v>
       </c>
       <c r="N565" t="n">
-        <v>86513.39</v>
+        <v>20566</v>
       </c>
       <c r="O565" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>0</v>
       </c>
       <c r="N566" t="n">
-        <v>107079.39</v>
+        <v>20566</v>
       </c>
       <c r="O566" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>0</v>
       </c>
       <c r="N567" t="n">
-        <v>112729.39</v>
+        <v>5650</v>
       </c>
       <c r="O567" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>0</v>
       </c>
       <c r="N568" t="n">
-        <v>133295.39</v>
+        <v>20566</v>
       </c>
       <c r="O568" t="inlineStr">
         <is>
@@ -31742,7 +31742,7 @@
         <v>0</v>
       </c>
       <c r="N569" t="n">
-        <v>153861.39</v>
+        <v>20566</v>
       </c>
       <c r="O569" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>0</v>
       </c>
       <c r="N577" t="n">
-        <v>2178.77</v>
+        <v>2178.64</v>
       </c>
       <c r="O577" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>6328</v>
       </c>
       <c r="N579" t="n">
-        <v>6328.08</v>
+        <v>6328</v>
       </c>
       <c r="O579" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>3164</v>
       </c>
       <c r="N580" t="n">
-        <v>9492.08</v>
+        <v>3164</v>
       </c>
       <c r="O580" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>0</v>
       </c>
       <c r="N581" t="n">
-        <v>12656.08</v>
+        <v>3164</v>
       </c>
       <c r="O581" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>0</v>
       </c>
       <c r="N582" t="n">
-        <v>15820.08</v>
+        <v>3164</v>
       </c>
       <c r="O582" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>0</v>
       </c>
       <c r="N583" t="n">
-        <v>22148.08</v>
+        <v>6328</v>
       </c>
       <c r="O583" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>0</v>
       </c>
       <c r="N584" t="n">
-        <v>23144.74</v>
+        <v>996.66</v>
       </c>
       <c r="O584" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>0</v>
       </c>
       <c r="N585" t="n">
-        <v>26308.74</v>
+        <v>3164</v>
       </c>
       <c r="O585" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>0</v>
       </c>
       <c r="N586" t="n">
-        <v>29472.74</v>
+        <v>3164</v>
       </c>
       <c r="O586" t="inlineStr">
         <is>
@@ -32732,7 +32732,7 @@
         <v>0</v>
       </c>
       <c r="N587" t="n">
-        <v>50038.74</v>
+        <v>20566</v>
       </c>
       <c r="O587" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>0</v>
       </c>
       <c r="N588" t="n">
-        <v>54007.98</v>
+        <v>3969.24</v>
       </c>
       <c r="O588" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>0</v>
       </c>
       <c r="N589" t="n">
-        <v>58753.98</v>
+        <v>4746</v>
       </c>
       <c r="O589" t="inlineStr">
         <is>
@@ -33117,7 +33117,7 @@
         <v>0</v>
       </c>
       <c r="N594" t="n">
-        <v>20560.35</v>
+        <v>20340</v>
       </c>
       <c r="O594" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>2966.25</v>
       </c>
       <c r="N596" t="n">
-        <v>2966.26</v>
+        <v>2966.25</v>
       </c>
       <c r="O596" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>0</v>
       </c>
       <c r="N597" t="n">
-        <v>8178.39</v>
+        <v>5212.13</v>
       </c>
       <c r="O597" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>0</v>
       </c>
       <c r="N601" t="n">
-        <v>3644.25</v>
+        <v>2825</v>
       </c>
       <c r="O601" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>0</v>
       </c>
       <c r="N613" t="n">
-        <v>14748.2</v>
+        <v>6705.42</v>
       </c>
       <c r="O613" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>0</v>
       </c>
       <c r="N616" t="n">
-        <v>458000</v>
+        <v>452000</v>
       </c>
       <c r="O616" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         <v>0</v>
       </c>
       <c r="N617" t="n">
-        <v>797000</v>
+        <v>339000</v>
       </c>
       <c r="O617" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>0</v>
       </c>
       <c r="N622" t="n">
-        <v>372900</v>
+        <v>124300</v>
       </c>
       <c r="O622" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>0</v>
       </c>
       <c r="N627" t="n">
-        <v>8814</v>
+        <v>5650</v>
       </c>
       <c r="O627" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>0</v>
       </c>
       <c r="N629" t="n">
-        <v>51956</v>
+        <v>49720</v>
       </c>
       <c r="O629" t="inlineStr">
         <is>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="N630" t="n">
-        <v>173996</v>
+        <v>122040</v>
       </c>
       <c r="O630" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>0</v>
       </c>
       <c r="N631" t="n">
-        <v>219196</v>
+        <v>45200</v>
       </c>
       <c r="O631" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>0</v>
       </c>
       <c r="N633" t="n">
-        <v>7340.48</v>
+        <v>3350.45</v>
       </c>
       <c r="O633" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         <v>0</v>
       </c>
       <c r="N637" t="n">
-        <v>1001.17</v>
+        <v>1000.39</v>
       </c>
       <c r="O637" t="inlineStr">
         <is>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="N640" t="n">
-        <v>16330.97</v>
+        <v>8000.4</v>
       </c>
       <c r="O640" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>0</v>
       </c>
       <c r="N641" t="n">
-        <v>24331.37</v>
+        <v>8000.4</v>
       </c>
       <c r="O641" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>0</v>
       </c>
       <c r="N642" t="n">
-        <v>39331.44</v>
+        <v>15000.07</v>
       </c>
       <c r="O642" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>0</v>
       </c>
       <c r="N643" t="n">
-        <v>49331.94</v>
+        <v>10000.5</v>
       </c>
       <c r="O643" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>0</v>
       </c>
       <c r="N644" t="n">
-        <v>69332.94</v>
+        <v>20001</v>
       </c>
       <c r="O644" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>0</v>
       </c>
       <c r="N645" t="n">
-        <v>74333.87</v>
+        <v>5000.93</v>
       </c>
       <c r="O645" t="inlineStr">
         <is>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="N646" t="n">
-        <v>81334.22</v>
+        <v>7000.35</v>
       </c>
       <c r="O646" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>0</v>
       </c>
       <c r="N647" t="n">
-        <v>89335.98</v>
+        <v>8001.76</v>
       </c>
       <c r="O647" t="inlineStr">
         <is>
@@ -36087,7 +36087,7 @@
         <v>0</v>
       </c>
       <c r="N648" t="n">
-        <v>107337.11</v>
+        <v>18001.13</v>
       </c>
       <c r="O648" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>0</v>
       </c>
       <c r="N649" t="n">
-        <v>113337.07</v>
+        <v>5999.96</v>
       </c>
       <c r="O649" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="N650" t="n">
-        <v>121338.26</v>
+        <v>8001.19</v>
       </c>
       <c r="O650" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>0</v>
       </c>
       <c r="N651" t="n">
-        <v>131338.2</v>
+        <v>9999.940000000001</v>
       </c>
       <c r="O651" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>0</v>
       </c>
       <c r="N653" t="n">
-        <v>2938</v>
+        <v>1469</v>
       </c>
       <c r="O653" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>0</v>
       </c>
       <c r="N654" t="n">
-        <v>4407</v>
+        <v>1469</v>
       </c>
       <c r="O654" t="inlineStr">
         <is>
@@ -36472,7 +36472,7 @@
         <v>0</v>
       </c>
       <c r="N655" t="n">
-        <v>5876</v>
+        <v>1469</v>
       </c>
       <c r="O655" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="N656" t="n">
-        <v>7345</v>
+        <v>1469</v>
       </c>
       <c r="O656" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="N657" t="n">
-        <v>8814</v>
+        <v>1469</v>
       </c>
       <c r="O657" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>0</v>
       </c>
       <c r="N658" t="n">
-        <v>10283</v>
+        <v>1469</v>
       </c>
       <c r="O658" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>0</v>
       </c>
       <c r="N662" t="n">
-        <v>5650.5</v>
+        <v>5650</v>
       </c>
       <c r="O662" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>0</v>
       </c>
       <c r="N667" t="n">
-        <v>57034.72</v>
+        <v>10000.05</v>
       </c>
       <c r="O667" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>0</v>
       </c>
       <c r="N668" t="n">
-        <v>67034.77</v>
+        <v>10000.05</v>
       </c>
       <c r="O668" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>47460</v>
       </c>
       <c r="N676" t="n">
-        <v>48972</v>
+        <v>47460</v>
       </c>
       <c r="O676" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="N680" t="n">
-        <v>1570.7</v>
+        <v>440.7</v>
       </c>
       <c r="O680" t="inlineStr">
         <is>
@@ -37902,7 +37902,7 @@
         <v>0</v>
       </c>
       <c r="N681" t="n">
-        <v>11514.7</v>
+        <v>9944</v>
       </c>
       <c r="O681" t="inlineStr">
         <is>
@@ -38067,7 +38067,7 @@
         <v>0</v>
       </c>
       <c r="N684" t="n">
-        <v>17076</v>
+        <v>16385</v>
       </c>
       <c r="O684" t="inlineStr">
         <is>
@@ -38287,7 +38287,7 @@
         <v>76840</v>
       </c>
       <c r="N688" t="n">
-        <v>100520.82</v>
+        <v>76840</v>
       </c>
       <c r="O688" t="inlineStr">
         <is>
@@ -38342,7 +38342,7 @@
         <v>0</v>
       </c>
       <c r="N689" t="n">
-        <v>138940.82</v>
+        <v>38420</v>
       </c>
       <c r="O689" t="inlineStr">
         <is>
@@ -38397,7 +38397,7 @@
         <v>0</v>
       </c>
       <c r="N690" t="n">
-        <v>215780.82</v>
+        <v>76840</v>
       </c>
       <c r="O690" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>0</v>
       </c>
       <c r="N691" t="n">
-        <v>350250.82</v>
+        <v>134470</v>
       </c>
       <c r="O691" t="inlineStr">
         <is>
@@ -38507,7 +38507,7 @@
         <v>0</v>
       </c>
       <c r="N692" t="n">
-        <v>427090.82</v>
+        <v>76840</v>
       </c>
       <c r="O692" t="inlineStr">
         <is>
@@ -38562,7 +38562,7 @@
         <v>0</v>
       </c>
       <c r="N693" t="n">
-        <v>503930.82</v>
+        <v>76840</v>
       </c>
       <c r="O693" t="inlineStr">
         <is>
@@ -38617,7 +38617,7 @@
         <v>0</v>
       </c>
       <c r="N694" t="n">
-        <v>580770.8199999999</v>
+        <v>76840</v>
       </c>
       <c r="O694" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>0</v>
       </c>
       <c r="N695" t="n">
-        <v>734450.8199999999</v>
+        <v>153680</v>
       </c>
       <c r="O695" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>0</v>
       </c>
       <c r="N696" t="n">
-        <v>888130.8199999999</v>
+        <v>153680</v>
       </c>
       <c r="O696" t="inlineStr">
         <is>

--- a/sorted_aging_report.xlsx
+++ b/sorted_aging_report.xlsx
@@ -35424,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="M636" t="n">
-        <v>0.78</v>
+        <v>200</v>
       </c>
       <c r="N636" t="n">
-        <v>0.78</v>
+        <v>200</v>
       </c>
       <c r="O636" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>0</v>
       </c>
       <c r="J637" t="n">
-        <v>1000.39</v>
+        <v>500.39</v>
       </c>
       <c r="K637" t="n">
         <v>0</v>
@@ -35482,7 +35482,7 @@
         <v>0</v>
       </c>
       <c r="N637" t="n">
-        <v>1000.39</v>
+        <v>500.39</v>
       </c>
       <c r="O637" t="inlineStr">
         <is>
@@ -35519,10 +35519,10 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>3390</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J638" t="n">
         <v>0</v>
@@ -35537,7 +35537,7 @@
         <v>0</v>
       </c>
       <c r="N638" t="n">
-        <v>3390</v>
+        <v>1000</v>
       </c>
       <c r="O638" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>23680.82</v>
+        <v>20000.82</v>
       </c>
       <c r="E687" t="n">
         <v>0</v>
@@ -38229,10 +38229,10 @@
         <v>0</v>
       </c>
       <c r="M687" t="n">
-        <v>23680.82</v>
+        <v>20000.82</v>
       </c>
       <c r="N687" t="n">
-        <v>23680.82</v>
+        <v>20000.82</v>
       </c>
       <c r="O687" t="inlineStr">
         <is>

--- a/sorted_aging_report.xlsx
+++ b/sorted_aging_report.xlsx
@@ -9336,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -9354,10 +9354,10 @@
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="N162" t="n">
-        <v>465</v>
+        <v>165</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>5650</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>5650</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>5650</v>
+        <v>0</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -35424,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="M636" t="n">
-        <v>200</v>
+        <v>0.78</v>
       </c>
       <c r="N636" t="n">
-        <v>200</v>
+        <v>0.78</v>
       </c>
       <c r="O636" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="D637" t="n">
@@ -35470,7 +35470,7 @@
         <v>0</v>
       </c>
       <c r="J637" t="n">
-        <v>500.39</v>
+        <v>1000.39</v>
       </c>
       <c r="K637" t="n">
         <v>0</v>
@@ -35482,7 +35482,7 @@
         <v>0</v>
       </c>
       <c r="N637" t="n">
-        <v>500.39</v>
+        <v>1000.39</v>
       </c>
       <c r="O637" t="inlineStr">
         <is>
@@ -35519,10 +35519,10 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>3390</v>
       </c>
       <c r="I638" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J638" t="n">
         <v>0</v>
@@ -35537,7 +35537,7 @@
         <v>0</v>
       </c>
       <c r="N638" t="n">
-        <v>1000</v>
+        <v>3390</v>
       </c>
       <c r="O638" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>20000.82</v>
+        <v>23680.82</v>
       </c>
       <c r="E687" t="n">
         <v>0</v>
@@ -38229,10 +38229,10 @@
         <v>0</v>
       </c>
       <c r="M687" t="n">
-        <v>20000.82</v>
+        <v>23680.82</v>
       </c>
       <c r="N687" t="n">
-        <v>20000.82</v>
+        <v>23680.82</v>
       </c>
       <c r="O687" t="inlineStr">
         <is>

--- a/sorted_aging_report.xlsx
+++ b/sorted_aging_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O696"/>
+  <dimension ref="A1:O693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>14999.17</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>14999.17</v>
+        <v>15999.17</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -9336,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -9354,10 +9354,10 @@
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="N162" t="n">
-        <v>165</v>
+        <v>465</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -10207,10 +10207,10 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>38420</v>
+        <v>238420</v>
       </c>
       <c r="E178" t="n">
-        <v>38420</v>
+        <v>238420</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>38420</v>
+        <v>238420</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="n">
-        <v>8042.78</v>
+        <v>-8042.78</v>
       </c>
       <c r="J612" t="n">
         <v>0</v>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
       <c r="N612" t="n">
-        <v>8042.78</v>
+        <v>-8042.78</v>
       </c>
       <c r="O612" t="inlineStr">
         <is>
@@ -34118,21 +34118,21 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>SB/01386</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D613" t="n">
-        <v>6705.42</v>
+        <v>248694.86</v>
       </c>
       <c r="E613" t="n">
         <v>0</v>
@@ -34147,7 +34147,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="n">
-        <v>6705.42</v>
+        <v>0</v>
       </c>
       <c r="J613" t="n">
         <v>0</v>
@@ -34159,14 +34159,14 @@
         <v>0</v>
       </c>
       <c r="M613" t="n">
-        <v>0</v>
+        <v>-241695.13</v>
       </c>
       <c r="N613" t="n">
-        <v>6705.42</v>
+        <v>-241695.13</v>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t xml:space="preserve">2491 </t>
+          <t xml:space="preserve">L-000056 </t>
         </is>
       </c>
     </row>
@@ -34187,7 +34187,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>248694.86</v>
+        <v>6000</v>
       </c>
       <c r="E614" t="n">
         <v>0</v>
@@ -34214,35 +34214,35 @@
         <v>0</v>
       </c>
       <c r="M614" t="n">
-        <v>-241695.13</v>
+        <v>6000</v>
       </c>
       <c r="N614" t="n">
-        <v>-241695.13</v>
+        <v>6000</v>
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t xml:space="preserve">L-000056 </t>
+          <t xml:space="preserve">1858 </t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/01422</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="D615" t="n">
-        <v>6000</v>
+        <v>452000</v>
       </c>
       <c r="E615" t="n">
         <v>0</v>
@@ -34257,7 +34257,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="n">
-        <v>0</v>
+        <v>452000</v>
       </c>
       <c r="J615" t="n">
         <v>0</v>
@@ -34269,10 +34269,10 @@
         <v>0</v>
       </c>
       <c r="M615" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="N615" t="n">
-        <v>6000</v>
+        <v>452000</v>
       </c>
       <c r="O615" t="inlineStr">
         <is>
@@ -34283,21 +34283,21 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>SB/01422</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D616" t="n">
-        <v>452000</v>
+        <v>1893.5</v>
       </c>
       <c r="E616" t="n">
         <v>0</v>
@@ -34312,7 +34312,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="n">
-        <v>452000</v>
+        <v>0</v>
       </c>
       <c r="J616" t="n">
         <v>0</v>
@@ -34324,38 +34324,38 @@
         <v>0</v>
       </c>
       <c r="M616" t="n">
-        <v>0</v>
+        <v>1893.5</v>
       </c>
       <c r="N616" t="n">
-        <v>452000</v>
+        <v>1893.5</v>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t xml:space="preserve">1858 </t>
+          <t xml:space="preserve">377 </t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>SB/02342</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D617" t="n">
-        <v>339000</v>
+        <v>11.3</v>
       </c>
       <c r="E617" t="n">
-        <v>339000</v>
+        <v>0</v>
       </c>
       <c r="F617" t="n">
         <v>0</v>
@@ -34379,14 +34379,14 @@
         <v>0</v>
       </c>
       <c r="M617" t="n">
-        <v>0</v>
+        <v>-11.3</v>
       </c>
       <c r="N617" t="n">
-        <v>339000</v>
+        <v>-11.3</v>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t xml:space="preserve">1858 </t>
+          <t xml:space="preserve">1946 </t>
         </is>
       </c>
     </row>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>1893.5</v>
+        <v>31.33</v>
       </c>
       <c r="E618" t="n">
         <v>0</v>
@@ -34434,35 +34434,35 @@
         <v>0</v>
       </c>
       <c r="M618" t="n">
-        <v>1893.5</v>
+        <v>31.33</v>
       </c>
       <c r="N618" t="n">
-        <v>1893.5</v>
+        <v>31.33</v>
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t xml:space="preserve">377 </t>
+          <t xml:space="preserve">2161 </t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00392</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="D619" t="n">
-        <v>11.3</v>
+        <v>248600</v>
       </c>
       <c r="E619" t="n">
         <v>0</v>
@@ -34489,35 +34489,35 @@
         <v>0</v>
       </c>
       <c r="M619" t="n">
-        <v>-11.3</v>
+        <v>248600</v>
       </c>
       <c r="N619" t="n">
-        <v>-11.3</v>
+        <v>248600</v>
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t xml:space="preserve">1946 </t>
+          <t xml:space="preserve">2323 </t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/01110</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="D620" t="n">
-        <v>31.33</v>
+        <v>124300</v>
       </c>
       <c r="E620" t="n">
         <v>0</v>
@@ -34535,7 +34535,7 @@
         <v>0</v>
       </c>
       <c r="J620" t="n">
-        <v>0</v>
+        <v>124300</v>
       </c>
       <c r="K620" t="n">
         <v>0</v>
@@ -34544,35 +34544,35 @@
         <v>0</v>
       </c>
       <c r="M620" t="n">
-        <v>31.33</v>
+        <v>0</v>
       </c>
       <c r="N620" t="n">
-        <v>31.33</v>
+        <v>124300</v>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t xml:space="preserve">2161 </t>
+          <t xml:space="preserve">2323 </t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>SB/00392</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>2023-08-07</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D621" t="n">
-        <v>248600</v>
+        <v>0.36</v>
       </c>
       <c r="E621" t="n">
         <v>0</v>
@@ -34599,14 +34599,14 @@
         <v>0</v>
       </c>
       <c r="M621" t="n">
-        <v>248600</v>
+        <v>0.36</v>
       </c>
       <c r="N621" t="n">
-        <v>248600</v>
+        <v>0.36</v>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t xml:space="preserve">2323 </t>
+          <t xml:space="preserve">1045 </t>
         </is>
       </c>
     </row>
@@ -34618,16 +34618,16 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>SB/01110</t>
+          <t>SB/00204</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="D622" t="n">
-        <v>124300</v>
+        <v>4407</v>
       </c>
       <c r="E622" t="n">
         <v>0</v>
@@ -34645,7 +34645,7 @@
         <v>0</v>
       </c>
       <c r="J622" t="n">
-        <v>124300</v>
+        <v>0</v>
       </c>
       <c r="K622" t="n">
         <v>0</v>
@@ -34654,35 +34654,35 @@
         <v>0</v>
       </c>
       <c r="M622" t="n">
-        <v>0</v>
+        <v>4407</v>
       </c>
       <c r="N622" t="n">
-        <v>124300</v>
+        <v>4407</v>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t xml:space="preserve">2323 </t>
+          <t xml:space="preserve">2283 </t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00117</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-07-23</t>
         </is>
       </c>
       <c r="D623" t="n">
-        <v>0.36</v>
+        <v>1469</v>
       </c>
       <c r="E623" t="n">
         <v>0</v>
@@ -34709,14 +34709,14 @@
         <v>0</v>
       </c>
       <c r="M623" t="n">
-        <v>0.36</v>
+        <v>1469</v>
       </c>
       <c r="N623" t="n">
-        <v>0.36</v>
+        <v>1469</v>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t xml:space="preserve">1045 </t>
+          <t xml:space="preserve">2261 </t>
         </is>
       </c>
     </row>
@@ -34728,16 +34728,16 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>SB/00204</t>
+          <t>SB/01121</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="D624" t="n">
-        <v>4407</v>
+        <v>3164</v>
       </c>
       <c r="E624" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>0</v>
       </c>
       <c r="J624" t="n">
-        <v>0</v>
+        <v>3164</v>
       </c>
       <c r="K624" t="n">
         <v>0</v>
@@ -34764,14 +34764,14 @@
         <v>0</v>
       </c>
       <c r="M624" t="n">
-        <v>4407</v>
+        <v>0</v>
       </c>
       <c r="N624" t="n">
-        <v>4407</v>
+        <v>3164</v>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t xml:space="preserve">2283 </t>
+          <t xml:space="preserve">170 </t>
         </is>
       </c>
     </row>
@@ -34783,22 +34783,22 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>SB/00117</t>
+          <t>SB/02205</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>2023-07-23</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="D625" t="n">
-        <v>1469</v>
+        <v>5650</v>
       </c>
       <c r="E625" t="n">
         <v>0</v>
       </c>
       <c r="F625" t="n">
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="G625" t="n">
         <v>0</v>
@@ -34819,35 +34819,35 @@
         <v>0</v>
       </c>
       <c r="M625" t="n">
-        <v>1469</v>
+        <v>0</v>
       </c>
       <c r="N625" t="n">
-        <v>1469</v>
+        <v>5650</v>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t xml:space="preserve">2261 </t>
+          <t xml:space="preserve">170 </t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>SB/01121</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D626" t="n">
-        <v>3164</v>
+        <v>2236</v>
       </c>
       <c r="E626" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>0</v>
       </c>
       <c r="J626" t="n">
-        <v>3164</v>
+        <v>0</v>
       </c>
       <c r="K626" t="n">
         <v>0</v>
@@ -34874,14 +34874,14 @@
         <v>0</v>
       </c>
       <c r="M626" t="n">
-        <v>0</v>
+        <v>2236</v>
       </c>
       <c r="N626" t="n">
-        <v>3164</v>
+        <v>2236</v>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t xml:space="preserve">170 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
     </row>
@@ -34893,22 +34893,22 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>SB/02205</t>
+          <t>SB/00535</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="D627" t="n">
-        <v>5650</v>
+        <v>49720</v>
       </c>
       <c r="E627" t="n">
         <v>0</v>
       </c>
       <c r="F627" t="n">
-        <v>5650</v>
+        <v>0</v>
       </c>
       <c r="G627" t="n">
         <v>0</v>
@@ -34926,38 +34926,38 @@
         <v>0</v>
       </c>
       <c r="L627" t="n">
-        <v>0</v>
+        <v>49720</v>
       </c>
       <c r="M627" t="n">
         <v>0</v>
       </c>
       <c r="N627" t="n">
-        <v>5650</v>
+        <v>49720</v>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t xml:space="preserve">170 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00837</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="D628" t="n">
-        <v>2236</v>
+        <v>122040</v>
       </c>
       <c r="E628" t="n">
         <v>0</v>
@@ -34978,16 +34978,16 @@
         <v>0</v>
       </c>
       <c r="K628" t="n">
-        <v>0</v>
+        <v>122040</v>
       </c>
       <c r="L628" t="n">
         <v>0</v>
       </c>
       <c r="M628" t="n">
-        <v>2236</v>
+        <v>0</v>
       </c>
       <c r="N628" t="n">
-        <v>2236</v>
+        <v>122040</v>
       </c>
       <c r="O628" t="inlineStr">
         <is>
@@ -35003,19 +35003,19 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>SB/00535</t>
+          <t>SB/02386</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="D629" t="n">
-        <v>49720</v>
+        <v>45200</v>
       </c>
       <c r="E629" t="n">
-        <v>0</v>
+        <v>45200</v>
       </c>
       <c r="F629" t="n">
         <v>0</v>
@@ -35036,13 +35036,13 @@
         <v>0</v>
       </c>
       <c r="L629" t="n">
-        <v>49720</v>
+        <v>0</v>
       </c>
       <c r="M629" t="n">
         <v>0</v>
       </c>
       <c r="N629" t="n">
-        <v>49720</v>
+        <v>45200</v>
       </c>
       <c r="O629" t="inlineStr">
         <is>
@@ -35058,16 +35058,16 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>SB/00837</t>
+          <t>SB/01891</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-10-19</t>
         </is>
       </c>
       <c r="D630" t="n">
-        <v>122040</v>
+        <v>3990.03</v>
       </c>
       <c r="E630" t="n">
         <v>0</v>
@@ -35079,7 +35079,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>3990.03</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -35088,7 +35088,7 @@
         <v>0</v>
       </c>
       <c r="K630" t="n">
-        <v>122040</v>
+        <v>0</v>
       </c>
       <c r="L630" t="n">
         <v>0</v>
@@ -35097,11 +35097,11 @@
         <v>0</v>
       </c>
       <c r="N630" t="n">
-        <v>122040</v>
+        <v>3990.03</v>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">597 </t>
         </is>
       </c>
     </row>
@@ -35113,25 +35113,25 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>SB/02386</t>
+          <t>SB/01950</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="D631" t="n">
-        <v>45200</v>
+        <v>3350.45</v>
       </c>
       <c r="E631" t="n">
-        <v>45200</v>
+        <v>0</v>
       </c>
       <c r="F631" t="n">
         <v>0</v>
       </c>
       <c r="G631" t="n">
-        <v>0</v>
+        <v>3350.45</v>
       </c>
       <c r="H631" t="n">
         <v>0</v>
@@ -35152,32 +35152,32 @@
         <v>0</v>
       </c>
       <c r="N631" t="n">
-        <v>45200</v>
+        <v>3350.45</v>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">597 </t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>SB/01891</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D632" t="n">
-        <v>3990.03</v>
+        <v>11.3</v>
       </c>
       <c r="E632" t="n">
         <v>0</v>
@@ -35189,7 +35189,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>3990.03</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -35204,35 +35204,35 @@
         <v>0</v>
       </c>
       <c r="M632" t="n">
-        <v>0</v>
+        <v>-11.3</v>
       </c>
       <c r="N632" t="n">
-        <v>3990.03</v>
+        <v>-11.3</v>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t xml:space="preserve">597 </t>
+          <t xml:space="preserve">1924 </t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>SB/01950</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D633" t="n">
-        <v>3350.45</v>
+        <v>208694.73</v>
       </c>
       <c r="E633" t="n">
         <v>0</v>
@@ -35241,7 +35241,7 @@
         <v>0</v>
       </c>
       <c r="G633" t="n">
-        <v>3350.45</v>
+        <v>0</v>
       </c>
       <c r="H633" t="n">
         <v>0</v>
@@ -35259,14 +35259,14 @@
         <v>0</v>
       </c>
       <c r="M633" t="n">
-        <v>0</v>
+        <v>208694.73</v>
       </c>
       <c r="N633" t="n">
-        <v>3350.45</v>
+        <v>208694.73</v>
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t xml:space="preserve">597 </t>
+          <t xml:space="preserve">898 </t>
         </is>
       </c>
     </row>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>11.3</v>
+        <v>0.78</v>
       </c>
       <c r="E634" t="n">
         <v>0</v>
@@ -35314,35 +35314,35 @@
         <v>0</v>
       </c>
       <c r="M634" t="n">
-        <v>-11.3</v>
+        <v>200</v>
       </c>
       <c r="N634" t="n">
-        <v>-11.3</v>
+        <v>200</v>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t xml:space="preserve">1924 </t>
+          <t xml:space="preserve">911 </t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/01725</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="D635" t="n">
-        <v>208694.73</v>
+        <v>3390</v>
       </c>
       <c r="E635" t="n">
         <v>0</v>
@@ -35357,7 +35357,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J635" t="n">
         <v>0</v>
@@ -35369,35 +35369,35 @@
         <v>0</v>
       </c>
       <c r="M635" t="n">
-        <v>208694.73</v>
+        <v>0</v>
       </c>
       <c r="N635" t="n">
-        <v>208694.73</v>
+        <v>1000</v>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t xml:space="preserve">898 </t>
+          <t xml:space="preserve">2566 </t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00382</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="D636" t="n">
-        <v>0.78</v>
+        <v>10000.5</v>
       </c>
       <c r="E636" t="n">
         <v>0</v>
@@ -35424,14 +35424,14 @@
         <v>0</v>
       </c>
       <c r="M636" t="n">
-        <v>0.78</v>
+        <v>8330.57</v>
       </c>
       <c r="N636" t="n">
-        <v>0.78</v>
+        <v>8330.57</v>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t xml:space="preserve">911 </t>
+          <t xml:space="preserve">1107 </t>
         </is>
       </c>
     </row>
@@ -35443,16 +35443,16 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>SB/01067</t>
+          <t>SB/00577</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="D637" t="n">
-        <v>1000.39</v>
+        <v>8000.4</v>
       </c>
       <c r="E637" t="n">
         <v>0</v>
@@ -35470,23 +35470,23 @@
         <v>0</v>
       </c>
       <c r="J637" t="n">
-        <v>1000.39</v>
+        <v>0</v>
       </c>
       <c r="K637" t="n">
         <v>0</v>
       </c>
       <c r="L637" t="n">
-        <v>0</v>
+        <v>8000.4</v>
       </c>
       <c r="M637" t="n">
         <v>0</v>
       </c>
       <c r="N637" t="n">
-        <v>1000.39</v>
+        <v>8000.4</v>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t xml:space="preserve">911 </t>
+          <t xml:space="preserve">1107 </t>
         </is>
       </c>
     </row>
@@ -35498,16 +35498,16 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>SB/01725</t>
+          <t>SB/00584</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="D638" t="n">
-        <v>3390</v>
+        <v>8000.4</v>
       </c>
       <c r="E638" t="n">
         <v>0</v>
@@ -35519,7 +35519,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>3390</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -35531,17 +35531,17 @@
         <v>0</v>
       </c>
       <c r="L638" t="n">
-        <v>0</v>
+        <v>8000.4</v>
       </c>
       <c r="M638" t="n">
         <v>0</v>
       </c>
       <c r="N638" t="n">
-        <v>3390</v>
+        <v>8000.4</v>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t xml:space="preserve">2566 </t>
+          <t xml:space="preserve">1107 </t>
         </is>
       </c>
     </row>
@@ -35553,16 +35553,16 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>SB/00382</t>
+          <t>SB/00639</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="D639" t="n">
-        <v>10000.5</v>
+        <v>15000.07</v>
       </c>
       <c r="E639" t="n">
         <v>0</v>
@@ -35586,13 +35586,13 @@
         <v>0</v>
       </c>
       <c r="L639" t="n">
-        <v>0</v>
+        <v>15000.07</v>
       </c>
       <c r="M639" t="n">
-        <v>8330.57</v>
+        <v>0</v>
       </c>
       <c r="N639" t="n">
-        <v>8330.57</v>
+        <v>15000.07</v>
       </c>
       <c r="O639" t="inlineStr">
         <is>
@@ -35608,16 +35608,16 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>SB/00577</t>
+          <t>SB/01123</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="D640" t="n">
-        <v>8000.4</v>
+        <v>10000.5</v>
       </c>
       <c r="E640" t="n">
         <v>0</v>
@@ -35635,19 +35635,19 @@
         <v>0</v>
       </c>
       <c r="J640" t="n">
-        <v>0</v>
+        <v>10000.5</v>
       </c>
       <c r="K640" t="n">
         <v>0</v>
       </c>
       <c r="L640" t="n">
-        <v>8000.4</v>
+        <v>0</v>
       </c>
       <c r="M640" t="n">
         <v>0</v>
       </c>
       <c r="N640" t="n">
-        <v>8000.4</v>
+        <v>10000.5</v>
       </c>
       <c r="O640" t="inlineStr">
         <is>
@@ -35663,16 +35663,16 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>SB/00584</t>
+          <t>SB/01159</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="D641" t="n">
-        <v>8000.4</v>
+        <v>20001</v>
       </c>
       <c r="E641" t="n">
         <v>0</v>
@@ -35690,19 +35690,19 @@
         <v>0</v>
       </c>
       <c r="J641" t="n">
-        <v>0</v>
+        <v>20001</v>
       </c>
       <c r="K641" t="n">
         <v>0</v>
       </c>
       <c r="L641" t="n">
-        <v>8000.4</v>
+        <v>0</v>
       </c>
       <c r="M641" t="n">
         <v>0</v>
       </c>
       <c r="N641" t="n">
-        <v>8000.4</v>
+        <v>20001</v>
       </c>
       <c r="O641" t="inlineStr">
         <is>
@@ -35718,16 +35718,16 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>SB/00639</t>
+          <t>SB/01568</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="D642" t="n">
-        <v>15000.07</v>
+        <v>5000.93</v>
       </c>
       <c r="E642" t="n">
         <v>0</v>
@@ -35742,7 +35742,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="n">
-        <v>0</v>
+        <v>5000.93</v>
       </c>
       <c r="J642" t="n">
         <v>0</v>
@@ -35751,13 +35751,13 @@
         <v>0</v>
       </c>
       <c r="L642" t="n">
-        <v>15000.07</v>
+        <v>0</v>
       </c>
       <c r="M642" t="n">
         <v>0</v>
       </c>
       <c r="N642" t="n">
-        <v>15000.07</v>
+        <v>5000.93</v>
       </c>
       <c r="O642" t="inlineStr">
         <is>
@@ -35773,16 +35773,16 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>SB/01123</t>
+          <t>SB/01839</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="D643" t="n">
-        <v>10000.5</v>
+        <v>7000.35</v>
       </c>
       <c r="E643" t="n">
         <v>0</v>
@@ -35794,13 +35794,13 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>7000.35</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
       <c r="J643" t="n">
-        <v>10000.5</v>
+        <v>0</v>
       </c>
       <c r="K643" t="n">
         <v>0</v>
@@ -35812,7 +35812,7 @@
         <v>0</v>
       </c>
       <c r="N643" t="n">
-        <v>10000.5</v>
+        <v>7000.35</v>
       </c>
       <c r="O643" t="inlineStr">
         <is>
@@ -35828,16 +35828,16 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>SB/01159</t>
+          <t>SB/01962</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="D644" t="n">
-        <v>20001</v>
+        <v>8001.76</v>
       </c>
       <c r="E644" t="n">
         <v>0</v>
@@ -35846,7 +35846,7 @@
         <v>0</v>
       </c>
       <c r="G644" t="n">
-        <v>0</v>
+        <v>8001.76</v>
       </c>
       <c r="H644" t="n">
         <v>0</v>
@@ -35855,7 +35855,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="n">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="K644" t="n">
         <v>0</v>
@@ -35867,7 +35867,7 @@
         <v>0</v>
       </c>
       <c r="N644" t="n">
-        <v>20001</v>
+        <v>8001.76</v>
       </c>
       <c r="O644" t="inlineStr">
         <is>
@@ -35883,16 +35883,16 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>SB/01568</t>
+          <t>SB/01963</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="D645" t="n">
-        <v>5000.93</v>
+        <v>18001.13</v>
       </c>
       <c r="E645" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>0</v>
       </c>
       <c r="G645" t="n">
-        <v>0</v>
+        <v>18001.13</v>
       </c>
       <c r="H645" t="n">
         <v>0</v>
       </c>
       <c r="I645" t="n">
-        <v>5000.93</v>
+        <v>0</v>
       </c>
       <c r="J645" t="n">
         <v>0</v>
@@ -35922,7 +35922,7 @@
         <v>0</v>
       </c>
       <c r="N645" t="n">
-        <v>5000.93</v>
+        <v>18001.13</v>
       </c>
       <c r="O645" t="inlineStr">
         <is>
@@ -35938,28 +35938,28 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>SB/01839</t>
+          <t>SB/02213</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="D646" t="n">
-        <v>7000.35</v>
+        <v>5999.96</v>
       </c>
       <c r="E646" t="n">
         <v>0</v>
       </c>
       <c r="F646" t="n">
-        <v>0</v>
+        <v>5999.96</v>
       </c>
       <c r="G646" t="n">
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>7000.35</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="N646" t="n">
-        <v>7000.35</v>
+        <v>5999.96</v>
       </c>
       <c r="O646" t="inlineStr">
         <is>
@@ -35993,25 +35993,25 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>SB/01962</t>
+          <t>SB/02370</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="D647" t="n">
-        <v>8001.76</v>
+        <v>8001.19</v>
       </c>
       <c r="E647" t="n">
-        <v>0</v>
+        <v>8001.19</v>
       </c>
       <c r="F647" t="n">
         <v>0</v>
       </c>
       <c r="G647" t="n">
-        <v>8001.76</v>
+        <v>0</v>
       </c>
       <c r="H647" t="n">
         <v>0</v>
@@ -36032,7 +36032,7 @@
         <v>0</v>
       </c>
       <c r="N647" t="n">
-        <v>8001.76</v>
+        <v>8001.19</v>
       </c>
       <c r="O647" t="inlineStr">
         <is>
@@ -36048,25 +36048,25 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>SB/01963</t>
+          <t>SB/02395</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="D648" t="n">
-        <v>18001.13</v>
+        <v>9999.940000000001</v>
       </c>
       <c r="E648" t="n">
-        <v>0</v>
+        <v>9999.940000000001</v>
       </c>
       <c r="F648" t="n">
         <v>0</v>
       </c>
       <c r="G648" t="n">
-        <v>18001.13</v>
+        <v>0</v>
       </c>
       <c r="H648" t="n">
         <v>0</v>
@@ -36087,7 +36087,7 @@
         <v>0</v>
       </c>
       <c r="N648" t="n">
-        <v>18001.13</v>
+        <v>9999.940000000001</v>
       </c>
       <c r="O648" t="inlineStr">
         <is>
@@ -36103,22 +36103,22 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>SB/02213</t>
+          <t>SB/00623</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="D649" t="n">
-        <v>5999.96</v>
+        <v>1469</v>
       </c>
       <c r="E649" t="n">
         <v>0</v>
       </c>
       <c r="F649" t="n">
-        <v>5999.96</v>
+        <v>0</v>
       </c>
       <c r="G649" t="n">
         <v>0</v>
@@ -36136,17 +36136,17 @@
         <v>0</v>
       </c>
       <c r="L649" t="n">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="M649" t="n">
         <v>0</v>
       </c>
       <c r="N649" t="n">
-        <v>5999.96</v>
+        <v>1469</v>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t xml:space="preserve">1107 </t>
+          <t xml:space="preserve">2375 </t>
         </is>
       </c>
     </row>
@@ -36158,19 +36158,19 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>SB/02370</t>
+          <t>SB/00888</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="D650" t="n">
-        <v>8001.19</v>
+        <v>1469</v>
       </c>
       <c r="E650" t="n">
-        <v>8001.19</v>
+        <v>0</v>
       </c>
       <c r="F650" t="n">
         <v>0</v>
@@ -36188,7 +36188,7 @@
         <v>0</v>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="L650" t="n">
         <v>0</v>
@@ -36197,11 +36197,11 @@
         <v>0</v>
       </c>
       <c r="N650" t="n">
-        <v>8001.19</v>
+        <v>1469</v>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t xml:space="preserve">1107 </t>
+          <t xml:space="preserve">2375 </t>
         </is>
       </c>
     </row>
@@ -36213,19 +36213,19 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>SB/02395</t>
+          <t>SB/01037</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="D651" t="n">
-        <v>9999.940000000001</v>
+        <v>1469</v>
       </c>
       <c r="E651" t="n">
-        <v>9999.940000000001</v>
+        <v>0</v>
       </c>
       <c r="F651" t="n">
         <v>0</v>
@@ -36240,7 +36240,7 @@
         <v>0</v>
       </c>
       <c r="J651" t="n">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="K651" t="n">
         <v>0</v>
@@ -36252,11 +36252,11 @@
         <v>0</v>
       </c>
       <c r="N651" t="n">
-        <v>9999.940000000001</v>
+        <v>1469</v>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t xml:space="preserve">1107 </t>
+          <t xml:space="preserve">2375 </t>
         </is>
       </c>
     </row>
@@ -36268,12 +36268,12 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>SB/00623</t>
+          <t>SB/01243</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="D652" t="n">
@@ -36295,13 +36295,13 @@
         <v>0</v>
       </c>
       <c r="J652" t="n">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="K652" t="n">
         <v>0</v>
       </c>
       <c r="L652" t="n">
-        <v>1469</v>
+        <v>0</v>
       </c>
       <c r="M652" t="n">
         <v>0</v>
@@ -36323,12 +36323,12 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>SB/00888</t>
+          <t>SB/01388</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="D653" t="n">
@@ -36347,13 +36347,13 @@
         <v>0</v>
       </c>
       <c r="I653" t="n">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="J653" t="n">
         <v>0</v>
       </c>
       <c r="K653" t="n">
-        <v>1469</v>
+        <v>0</v>
       </c>
       <c r="L653" t="n">
         <v>0</v>
@@ -36378,12 +36378,12 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>SB/01037</t>
+          <t>SB/01625</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -36399,13 +36399,13 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
       </c>
       <c r="J654" t="n">
-        <v>1469</v>
+        <v>0</v>
       </c>
       <c r="K654" t="n">
         <v>0</v>
@@ -36433,12 +36433,12 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>SB/01243</t>
+          <t>SB/01729</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
       </c>
       <c r="J655" t="n">
-        <v>1469</v>
+        <v>0</v>
       </c>
       <c r="K655" t="n">
         <v>0</v>
@@ -36483,21 +36483,21 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>SB/01388</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D656" t="n">
-        <v>1469</v>
+        <v>45765</v>
       </c>
       <c r="E656" t="n">
         <v>0</v>
@@ -36512,7 +36512,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="n">
-        <v>1469</v>
+        <v>0</v>
       </c>
       <c r="J656" t="n">
         <v>0</v>
@@ -36524,35 +36524,35 @@
         <v>0</v>
       </c>
       <c r="M656" t="n">
-        <v>0</v>
+        <v>-2542.5</v>
       </c>
       <c r="N656" t="n">
-        <v>1469</v>
+        <v>-2542.5</v>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t xml:space="preserve">2375 </t>
+          <t xml:space="preserve">253 </t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>SB/01625</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D657" t="n">
-        <v>1469</v>
+        <v>0.11</v>
       </c>
       <c r="E657" t="n">
         <v>0</v>
@@ -36564,7 +36564,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>1469</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -36579,35 +36579,35 @@
         <v>0</v>
       </c>
       <c r="M657" t="n">
-        <v>0</v>
+        <v>-0.11</v>
       </c>
       <c r="N657" t="n">
-        <v>1469</v>
+        <v>-0.11</v>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t xml:space="preserve">2375 </t>
+          <t xml:space="preserve">1955 </t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>SB/01729</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D658" t="n">
-        <v>1469</v>
+        <v>0.5</v>
       </c>
       <c r="E658" t="n">
         <v>0</v>
@@ -36619,7 +36619,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>1469</v>
+        <v>0</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -36634,35 +36634,35 @@
         <v>0</v>
       </c>
       <c r="M658" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N658" t="n">
-        <v>1469</v>
+        <v>0.5</v>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t xml:space="preserve">2375 </t>
+          <t xml:space="preserve">668 </t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/01363</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="D659" t="n">
-        <v>45765</v>
+        <v>5650</v>
       </c>
       <c r="E659" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="n">
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="J659" t="n">
         <v>0</v>
@@ -36689,14 +36689,14 @@
         <v>0</v>
       </c>
       <c r="M659" t="n">
-        <v>-2542.5</v>
+        <v>0</v>
       </c>
       <c r="N659" t="n">
-        <v>-2542.5</v>
+        <v>5650</v>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t xml:space="preserve">253 </t>
+          <t xml:space="preserve">668 </t>
         </is>
       </c>
     </row>
@@ -36717,7 +36717,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E660" t="n">
         <v>0</v>
@@ -36744,14 +36744,14 @@
         <v>0</v>
       </c>
       <c r="M660" t="n">
-        <v>-0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N660" t="n">
-        <v>-0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t xml:space="preserve">1955 </t>
+          <t xml:space="preserve">873 </t>
         </is>
       </c>
     </row>
@@ -36772,7 +36772,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>0.5</v>
+        <v>204</v>
       </c>
       <c r="E661" t="n">
         <v>0</v>
@@ -36799,35 +36799,35 @@
         <v>0</v>
       </c>
       <c r="M661" t="n">
-        <v>0.5</v>
+        <v>-204</v>
       </c>
       <c r="N661" t="n">
-        <v>0.5</v>
+        <v>-204</v>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t xml:space="preserve">668 </t>
+          <t xml:space="preserve">641 </t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>SB/01363</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D662" t="n">
-        <v>5650</v>
+        <v>0.49</v>
       </c>
       <c r="E662" t="n">
         <v>0</v>
@@ -36842,7 +36842,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="n">
-        <v>5650</v>
+        <v>0</v>
       </c>
       <c r="J662" t="n">
         <v>0</v>
@@ -36854,14 +36854,14 @@
         <v>0</v>
       </c>
       <c r="M662" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
       <c r="N662" t="n">
-        <v>5650</v>
+        <v>-0.49</v>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t xml:space="preserve">668 </t>
+          <t xml:space="preserve">836 </t>
         </is>
       </c>
     </row>
@@ -36882,7 +36882,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>0.07000000000000001</v>
+        <v>47034.67</v>
       </c>
       <c r="E663" t="n">
         <v>0</v>
@@ -36909,35 +36909,35 @@
         <v>0</v>
       </c>
       <c r="M663" t="n">
-        <v>0.07000000000000001</v>
+        <v>47034.67</v>
       </c>
       <c r="N663" t="n">
-        <v>0.07000000000000001</v>
+        <v>47034.67</v>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t xml:space="preserve">873 </t>
+          <t xml:space="preserve">149 </t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/01486</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="D664" t="n">
-        <v>204</v>
+        <v>10000.05</v>
       </c>
       <c r="E664" t="n">
         <v>0</v>
@@ -36952,7 +36952,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="n">
-        <v>0</v>
+        <v>10000.05</v>
       </c>
       <c r="J664" t="n">
         <v>0</v>
@@ -36964,35 +36964,35 @@
         <v>0</v>
       </c>
       <c r="M664" t="n">
-        <v>-204</v>
+        <v>0</v>
       </c>
       <c r="N664" t="n">
-        <v>-204</v>
+        <v>10000.05</v>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t xml:space="preserve">641 </t>
+          <t xml:space="preserve">149 </t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/01663</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="D665" t="n">
-        <v>0.49</v>
+        <v>10000.05</v>
       </c>
       <c r="E665" t="n">
         <v>0</v>
@@ -37004,7 +37004,7 @@
         <v>0</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>10000.05</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -37019,35 +37019,35 @@
         <v>0</v>
       </c>
       <c r="M665" t="n">
-        <v>-0.49</v>
+        <v>0</v>
       </c>
       <c r="N665" t="n">
-        <v>-0.49</v>
+        <v>10000.05</v>
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t xml:space="preserve">836 </t>
+          <t xml:space="preserve">149 </t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00441</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="D666" t="n">
-        <v>47034.67</v>
+        <v>3955</v>
       </c>
       <c r="E666" t="n">
         <v>0</v>
@@ -37071,38 +37071,38 @@
         <v>0</v>
       </c>
       <c r="L666" t="n">
-        <v>0</v>
+        <v>3955</v>
       </c>
       <c r="M666" t="n">
-        <v>47034.67</v>
+        <v>0</v>
       </c>
       <c r="N666" t="n">
-        <v>47034.67</v>
+        <v>3955</v>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t xml:space="preserve">149 </t>
+          <t xml:space="preserve">2338 </t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>SB/01486</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D667" t="n">
-        <v>10000.05</v>
+        <v>75</v>
       </c>
       <c r="E667" t="n">
         <v>0</v>
@@ -37117,7 +37117,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="n">
-        <v>10000.05</v>
+        <v>0</v>
       </c>
       <c r="J667" t="n">
         <v>0</v>
@@ -37129,35 +37129,35 @@
         <v>0</v>
       </c>
       <c r="M667" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N667" t="n">
-        <v>10000.05</v>
+        <v>75</v>
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t xml:space="preserve">149 </t>
+          <t xml:space="preserve">234 </t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>SB/01663</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D668" t="n">
-        <v>10000.05</v>
+        <v>385.5</v>
       </c>
       <c r="E668" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="H668" t="n">
-        <v>10000.05</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -37184,14 +37184,14 @@
         <v>0</v>
       </c>
       <c r="M668" t="n">
-        <v>0</v>
+        <v>385.5</v>
       </c>
       <c r="N668" t="n">
-        <v>10000.05</v>
+        <v>385.5</v>
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t xml:space="preserve">149 </t>
+          <t xml:space="preserve">L-000057 </t>
         </is>
       </c>
     </row>
@@ -37203,16 +37203,16 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>SB/00441</t>
+          <t>SB/01194</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="D669" t="n">
-        <v>3955</v>
+        <v>4263.26</v>
       </c>
       <c r="E669" t="n">
         <v>0</v>
@@ -37230,44 +37230,44 @@
         <v>0</v>
       </c>
       <c r="J669" t="n">
-        <v>0</v>
+        <v>4263.26</v>
       </c>
       <c r="K669" t="n">
         <v>0</v>
       </c>
       <c r="L669" t="n">
-        <v>3955</v>
+        <v>0</v>
       </c>
       <c r="M669" t="n">
         <v>0</v>
       </c>
       <c r="N669" t="n">
-        <v>3955</v>
+        <v>4263.26</v>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t xml:space="preserve">2338 </t>
+          <t xml:space="preserve">2478 </t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/01147</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="D670" t="n">
-        <v>75</v>
+        <v>3390</v>
       </c>
       <c r="E670" t="n">
         <v>0</v>
@@ -37285,7 +37285,7 @@
         <v>0</v>
       </c>
       <c r="J670" t="n">
-        <v>0</v>
+        <v>3390</v>
       </c>
       <c r="K670" t="n">
         <v>0</v>
@@ -37294,14 +37294,14 @@
         <v>0</v>
       </c>
       <c r="M670" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N670" t="n">
-        <v>75</v>
+        <v>3390</v>
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t xml:space="preserve">234 </t>
+          <t xml:space="preserve">2475 </t>
         </is>
       </c>
     </row>
@@ -37322,7 +37322,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>385.5</v>
+        <v>0.25</v>
       </c>
       <c r="E671" t="n">
         <v>0</v>
@@ -37349,35 +37349,35 @@
         <v>0</v>
       </c>
       <c r="M671" t="n">
-        <v>385.5</v>
+        <v>-0.25</v>
       </c>
       <c r="N671" t="n">
-        <v>385.5</v>
+        <v>-0.25</v>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t xml:space="preserve">L-000057 </t>
+          <t xml:space="preserve">1579 </t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>SB/01194</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D672" t="n">
-        <v>4263.26</v>
+        <v>1512</v>
       </c>
       <c r="E672" t="n">
         <v>0</v>
@@ -37395,7 +37395,7 @@
         <v>0</v>
       </c>
       <c r="J672" t="n">
-        <v>4263.26</v>
+        <v>0</v>
       </c>
       <c r="K672" t="n">
         <v>0</v>
@@ -37404,14 +37404,14 @@
         <v>0</v>
       </c>
       <c r="M672" t="n">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="N672" t="n">
-        <v>4263.26</v>
+        <v>1512</v>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t xml:space="preserve">2478 </t>
+          <t xml:space="preserve">530 </t>
         </is>
       </c>
     </row>
@@ -37423,16 +37423,16 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>SB/01147</t>
+          <t>SB/00202</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="D673" t="n">
-        <v>3390</v>
+        <v>47460</v>
       </c>
       <c r="E673" t="n">
         <v>0</v>
@@ -37450,7 +37450,7 @@
         <v>0</v>
       </c>
       <c r="J673" t="n">
-        <v>3390</v>
+        <v>0</v>
       </c>
       <c r="K673" t="n">
         <v>0</v>
@@ -37459,14 +37459,14 @@
         <v>0</v>
       </c>
       <c r="M673" t="n">
-        <v>0</v>
+        <v>47460</v>
       </c>
       <c r="N673" t="n">
-        <v>3390</v>
+        <v>47460</v>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t xml:space="preserve">2475 </t>
+          <t xml:space="preserve">530 </t>
         </is>
       </c>
     </row>
@@ -37487,7 +37487,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>0.25</v>
+        <v>22.6</v>
       </c>
       <c r="E674" t="n">
         <v>0</v>
@@ -37514,14 +37514,14 @@
         <v>0</v>
       </c>
       <c r="M674" t="n">
-        <v>-0.25</v>
+        <v>-22.6</v>
       </c>
       <c r="N674" t="n">
-        <v>-0.25</v>
+        <v>-22.6</v>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t xml:space="preserve">1579 </t>
+          <t xml:space="preserve">1928 </t>
         </is>
       </c>
     </row>
@@ -37542,7 +37542,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>1512</v>
+        <v>352.5</v>
       </c>
       <c r="E675" t="n">
         <v>0</v>
@@ -37569,14 +37569,14 @@
         <v>0</v>
       </c>
       <c r="M675" t="n">
-        <v>1512</v>
+        <v>352.5</v>
       </c>
       <c r="N675" t="n">
-        <v>1512</v>
+        <v>352.5</v>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t xml:space="preserve">530 </t>
+          <t xml:space="preserve">1387 </t>
         </is>
       </c>
     </row>
@@ -37588,16 +37588,16 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>SB/00202</t>
+          <t>SB/00419</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="D676" t="n">
-        <v>47460</v>
+        <v>1130</v>
       </c>
       <c r="E676" t="n">
         <v>0</v>
@@ -37621,38 +37621,38 @@
         <v>0</v>
       </c>
       <c r="L676" t="n">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="M676" t="n">
-        <v>47460</v>
+        <v>0</v>
       </c>
       <c r="N676" t="n">
-        <v>47460</v>
+        <v>1130</v>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t xml:space="preserve">530 </t>
+          <t xml:space="preserve">2140 </t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00684</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="D677" t="n">
-        <v>22.6</v>
+        <v>440.7</v>
       </c>
       <c r="E677" t="n">
         <v>0</v>
@@ -37676,38 +37676,38 @@
         <v>0</v>
       </c>
       <c r="L677" t="n">
-        <v>0</v>
+        <v>440.7</v>
       </c>
       <c r="M677" t="n">
-        <v>-22.6</v>
+        <v>0</v>
       </c>
       <c r="N677" t="n">
-        <v>-22.6</v>
+        <v>440.7</v>
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t xml:space="preserve">1928 </t>
+          <t xml:space="preserve">2140 </t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00802</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="D678" t="n">
-        <v>352.5</v>
+        <v>9944</v>
       </c>
       <c r="E678" t="n">
         <v>0</v>
@@ -37728,20 +37728,20 @@
         <v>0</v>
       </c>
       <c r="K678" t="n">
-        <v>0</v>
+        <v>9944</v>
       </c>
       <c r="L678" t="n">
         <v>0</v>
       </c>
       <c r="M678" t="n">
-        <v>352.5</v>
+        <v>0</v>
       </c>
       <c r="N678" t="n">
-        <v>352.5</v>
+        <v>9944</v>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t xml:space="preserve">1387 </t>
+          <t xml:space="preserve">2140 </t>
         </is>
       </c>
     </row>
@@ -37753,16 +37753,16 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>SB/00419</t>
+          <t>SB/00740</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="D679" t="n">
-        <v>1130</v>
+        <v>1594.66</v>
       </c>
       <c r="E679" t="n">
         <v>0</v>
@@ -37783,41 +37783,41 @@
         <v>0</v>
       </c>
       <c r="K679" t="n">
-        <v>0</v>
+        <v>1594.66</v>
       </c>
       <c r="L679" t="n">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="M679" t="n">
         <v>0</v>
       </c>
       <c r="N679" t="n">
-        <v>1130</v>
+        <v>1594.66</v>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t xml:space="preserve">2140 </t>
+          <t xml:space="preserve">997 </t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>SB/00684</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D680" t="n">
-        <v>440.7</v>
+        <v>691</v>
       </c>
       <c r="E680" t="n">
         <v>0</v>
@@ -37841,17 +37841,17 @@
         <v>0</v>
       </c>
       <c r="L680" t="n">
-        <v>440.7</v>
+        <v>0</v>
       </c>
       <c r="M680" t="n">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="N680" t="n">
-        <v>440.7</v>
+        <v>691</v>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t xml:space="preserve">2140 </t>
+          <t xml:space="preserve">942 </t>
         </is>
       </c>
     </row>
@@ -37863,16 +37863,16 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>SB/00802</t>
+          <t>SB/01561</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="D681" t="n">
-        <v>9944</v>
+        <v>16385</v>
       </c>
       <c r="E681" t="n">
         <v>0</v>
@@ -37887,13 +37887,13 @@
         <v>0</v>
       </c>
       <c r="I681" t="n">
-        <v>0</v>
+        <v>16385</v>
       </c>
       <c r="J681" t="n">
         <v>0</v>
       </c>
       <c r="K681" t="n">
-        <v>9944</v>
+        <v>0</v>
       </c>
       <c r="L681" t="n">
         <v>0</v>
@@ -37902,32 +37902,32 @@
         <v>0</v>
       </c>
       <c r="N681" t="n">
-        <v>9944</v>
+        <v>16385</v>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t xml:space="preserve">2140 </t>
+          <t xml:space="preserve">942 </t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>SB/00740</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D682" t="n">
-        <v>1594.66</v>
+        <v>3111.29</v>
       </c>
       <c r="E682" t="n">
         <v>0</v>
@@ -37948,20 +37948,20 @@
         <v>0</v>
       </c>
       <c r="K682" t="n">
-        <v>1594.66</v>
+        <v>0</v>
       </c>
       <c r="L682" t="n">
         <v>0</v>
       </c>
       <c r="M682" t="n">
-        <v>0</v>
+        <v>3111.29</v>
       </c>
       <c r="N682" t="n">
-        <v>1594.66</v>
+        <v>3111.29</v>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t xml:space="preserve">997 </t>
+          <t xml:space="preserve">1447 </t>
         </is>
       </c>
     </row>
@@ -37982,7 +37982,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>691</v>
+        <v>0.13</v>
       </c>
       <c r="E683" t="n">
         <v>0</v>
@@ -38009,35 +38009,35 @@
         <v>0</v>
       </c>
       <c r="M683" t="n">
-        <v>691</v>
+        <v>0.13</v>
       </c>
       <c r="N683" t="n">
-        <v>691</v>
+        <v>0.13</v>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t xml:space="preserve">942 </t>
+          <t xml:space="preserve">1608 </t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>SB/01561</t>
+          <t>CO-&gt;CO-0000001</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="D684" t="n">
-        <v>16385</v>
+        <v>20000.82</v>
       </c>
       <c r="E684" t="n">
         <v>0</v>
@@ -38052,7 +38052,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="n">
-        <v>16385</v>
+        <v>0</v>
       </c>
       <c r="J684" t="n">
         <v>0</v>
@@ -38064,35 +38064,35 @@
         <v>0</v>
       </c>
       <c r="M684" t="n">
-        <v>0</v>
+        <v>20000.82</v>
       </c>
       <c r="N684" t="n">
-        <v>16385</v>
+        <v>20000.82</v>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t xml:space="preserve">942 </t>
+          <t xml:space="preserve">L-000058 </t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00177</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-07-26</t>
         </is>
       </c>
       <c r="D685" t="n">
-        <v>3111.29</v>
+        <v>76840</v>
       </c>
       <c r="E685" t="n">
         <v>0</v>
@@ -38119,35 +38119,35 @@
         <v>0</v>
       </c>
       <c r="M685" t="n">
-        <v>3111.29</v>
+        <v>76840</v>
       </c>
       <c r="N685" t="n">
-        <v>3111.29</v>
+        <v>76840</v>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t xml:space="preserve">1447 </t>
+          <t xml:space="preserve">L-000058 </t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00532</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="D686" t="n">
-        <v>0.13</v>
+        <v>38420</v>
       </c>
       <c r="E686" t="n">
         <v>0</v>
@@ -38171,38 +38171,38 @@
         <v>0</v>
       </c>
       <c r="L686" t="n">
-        <v>0</v>
+        <v>38420</v>
       </c>
       <c r="M686" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N686" t="n">
-        <v>0.13</v>
+        <v>38420</v>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t xml:space="preserve">1608 </t>
+          <t xml:space="preserve">L-000058 </t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>CO-&gt;CO-0000001</t>
+          <t>SB/00919</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="D687" t="n">
-        <v>23680.82</v>
+        <v>76840</v>
       </c>
       <c r="E687" t="n">
         <v>0</v>
@@ -38223,16 +38223,16 @@
         <v>0</v>
       </c>
       <c r="K687" t="n">
-        <v>0</v>
+        <v>76840</v>
       </c>
       <c r="L687" t="n">
         <v>0</v>
       </c>
       <c r="M687" t="n">
-        <v>23680.82</v>
+        <v>0</v>
       </c>
       <c r="N687" t="n">
-        <v>23680.82</v>
+        <v>76840</v>
       </c>
       <c r="O687" t="inlineStr">
         <is>
@@ -38248,16 +38248,16 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>SB/00177</t>
+          <t>SB/01544</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>2023-07-26</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="D688" t="n">
-        <v>76840</v>
+        <v>134470</v>
       </c>
       <c r="E688" t="n">
         <v>0</v>
@@ -38272,7 +38272,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="n">
-        <v>0</v>
+        <v>134470</v>
       </c>
       <c r="J688" t="n">
         <v>0</v>
@@ -38284,10 +38284,10 @@
         <v>0</v>
       </c>
       <c r="M688" t="n">
-        <v>76840</v>
+        <v>0</v>
       </c>
       <c r="N688" t="n">
-        <v>76840</v>
+        <v>134470</v>
       </c>
       <c r="O688" t="inlineStr">
         <is>
@@ -38303,16 +38303,16 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>SB/00532</t>
+          <t>SB/01938</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="D689" t="n">
-        <v>38420</v>
+        <v>76840</v>
       </c>
       <c r="E689" t="n">
         <v>0</v>
@@ -38321,7 +38321,7 @@
         <v>0</v>
       </c>
       <c r="G689" t="n">
-        <v>0</v>
+        <v>76840</v>
       </c>
       <c r="H689" t="n">
         <v>0</v>
@@ -38336,13 +38336,13 @@
         <v>0</v>
       </c>
       <c r="L689" t="n">
-        <v>38420</v>
+        <v>0</v>
       </c>
       <c r="M689" t="n">
         <v>0</v>
       </c>
       <c r="N689" t="n">
-        <v>38420</v>
+        <v>76840</v>
       </c>
       <c r="O689" t="inlineStr">
         <is>
@@ -38358,12 +38358,12 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>SB/00919</t>
+          <t>SB/02099</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="D690" t="n">
@@ -38376,7 +38376,7 @@
         <v>0</v>
       </c>
       <c r="G690" t="n">
-        <v>0</v>
+        <v>76840</v>
       </c>
       <c r="H690" t="n">
         <v>0</v>
@@ -38388,7 +38388,7 @@
         <v>0</v>
       </c>
       <c r="K690" t="n">
-        <v>76840</v>
+        <v>0</v>
       </c>
       <c r="L690" t="n">
         <v>0</v>
@@ -38413,22 +38413,22 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>SB/01544</t>
+          <t>SB/02157</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="D691" t="n">
-        <v>134470</v>
+        <v>76840</v>
       </c>
       <c r="E691" t="n">
         <v>0</v>
       </c>
       <c r="F691" t="n">
-        <v>0</v>
+        <v>76840</v>
       </c>
       <c r="G691" t="n">
         <v>0</v>
@@ -38437,7 +38437,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="n">
-        <v>134470</v>
+        <v>0</v>
       </c>
       <c r="J691" t="n">
         <v>0</v>
@@ -38452,7 +38452,7 @@
         <v>0</v>
       </c>
       <c r="N691" t="n">
-        <v>134470</v>
+        <v>76840</v>
       </c>
       <c r="O691" t="inlineStr">
         <is>
@@ -38468,25 +38468,25 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>SB/01938</t>
+          <t>SB/02186</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="D692" t="n">
-        <v>76840</v>
+        <v>153680</v>
       </c>
       <c r="E692" t="n">
         <v>0</v>
       </c>
       <c r="F692" t="n">
-        <v>0</v>
+        <v>153680</v>
       </c>
       <c r="G692" t="n">
-        <v>76840</v>
+        <v>0</v>
       </c>
       <c r="H692" t="n">
         <v>0</v>
@@ -38507,7 +38507,7 @@
         <v>0</v>
       </c>
       <c r="N692" t="n">
-        <v>76840</v>
+        <v>153680</v>
       </c>
       <c r="O692" t="inlineStr">
         <is>
@@ -38523,25 +38523,25 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>SB/02099</t>
+          <t>SB/02266</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-11-19</t>
         </is>
       </c>
       <c r="D693" t="n">
-        <v>76840</v>
+        <v>153680</v>
       </c>
       <c r="E693" t="n">
         <v>0</v>
       </c>
       <c r="F693" t="n">
-        <v>0</v>
+        <v>153680</v>
       </c>
       <c r="G693" t="n">
-        <v>76840</v>
+        <v>0</v>
       </c>
       <c r="H693" t="n">
         <v>0</v>
@@ -38562,174 +38562,9 @@
         <v>0</v>
       </c>
       <c r="N693" t="n">
-        <v>76840</v>
+        <v>153680</v>
       </c>
       <c r="O693" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L-000058 </t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>SB</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>SB/02157</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="D694" t="n">
-        <v>76840</v>
-      </c>
-      <c r="E694" t="n">
-        <v>0</v>
-      </c>
-      <c r="F694" t="n">
-        <v>76840</v>
-      </c>
-      <c r="G694" t="n">
-        <v>0</v>
-      </c>
-      <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="n">
-        <v>0</v>
-      </c>
-      <c r="J694" t="n">
-        <v>0</v>
-      </c>
-      <c r="K694" t="n">
-        <v>0</v>
-      </c>
-      <c r="L694" t="n">
-        <v>0</v>
-      </c>
-      <c r="M694" t="n">
-        <v>0</v>
-      </c>
-      <c r="N694" t="n">
-        <v>76840</v>
-      </c>
-      <c r="O694" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L-000058 </t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>SB</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>SB/02186</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>2023-11-08</t>
-        </is>
-      </c>
-      <c r="D695" t="n">
-        <v>153680</v>
-      </c>
-      <c r="E695" t="n">
-        <v>0</v>
-      </c>
-      <c r="F695" t="n">
-        <v>153680</v>
-      </c>
-      <c r="G695" t="n">
-        <v>0</v>
-      </c>
-      <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="n">
-        <v>0</v>
-      </c>
-      <c r="J695" t="n">
-        <v>0</v>
-      </c>
-      <c r="K695" t="n">
-        <v>0</v>
-      </c>
-      <c r="L695" t="n">
-        <v>0</v>
-      </c>
-      <c r="M695" t="n">
-        <v>0</v>
-      </c>
-      <c r="N695" t="n">
-        <v>153680</v>
-      </c>
-      <c r="O695" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L-000058 </t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>SB</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>SB/02266</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>2023-11-19</t>
-        </is>
-      </c>
-      <c r="D696" t="n">
-        <v>153680</v>
-      </c>
-      <c r="E696" t="n">
-        <v>0</v>
-      </c>
-      <c r="F696" t="n">
-        <v>153680</v>
-      </c>
-      <c r="G696" t="n">
-        <v>0</v>
-      </c>
-      <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="n">
-        <v>0</v>
-      </c>
-      <c r="J696" t="n">
-        <v>0</v>
-      </c>
-      <c r="K696" t="n">
-        <v>0</v>
-      </c>
-      <c r="L696" t="n">
-        <v>0</v>
-      </c>
-      <c r="M696" t="n">
-        <v>0</v>
-      </c>
-      <c r="N696" t="n">
-        <v>153680</v>
-      </c>
-      <c r="O696" t="inlineStr">
         <is>
           <t xml:space="preserve">L-000058 </t>
         </is>
